--- a/Documentation/Resources.xlsx
+++ b/Documentation/Resources.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Developer\University\FINAL YEAR PROJECT\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB3066BC-A559-447A-A866-FA23B69415B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29501C6E-42F6-494C-967B-75E16538D960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{F7F33627-3FB1-4FA5-995C-06D688E88E20}"/>
+    <workbookView xWindow="28680" yWindow="2490" windowWidth="29040" windowHeight="15840" xr2:uid="{F7F33627-3FB1-4FA5-995C-06D688E88E20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Section</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Importance</t>
   </si>
@@ -75,23 +71,53 @@
     <t>Appendices</t>
   </si>
   <si>
-    <t>Literature Review</t>
-  </si>
-  <si>
-    <t>About MoSCoW tecnique</t>
-  </si>
-  <si>
     <t>Vestola, M. (2010) A Comparison of Nine Basic Techniques For Requirements Prioritization. Helsinki University of Technology [online]., pp. 1-8. [Accessed 04 June 2020].</t>
   </si>
   <si>
     <t>http://www.mvnet.fi/publications/software_development_seminar.pdf</t>
+  </si>
+  <si>
+    <t>Achimugu, P., Selamat, A., Ibrahim, R. and Mahrin, M.N. (2014) A Systematic Literature Review of Software Requirements Prioritization Research. Information and Software Technology [online]. 56 (6), pp. 568-585. [Accessed 22 June 2020].</t>
+  </si>
+  <si>
+    <t>Vestola, M. (2010) A Comparison of Nine Basic Techniques For Requirements Prioritization. Helsinki University of Technology [online]., pp. 1-8. [Accessed 04 June 2020].#</t>
+  </si>
+  <si>
+    <t>About each moscow level</t>
+  </si>
+  <si>
+    <t>What is moscow</t>
+  </si>
+  <si>
+    <t>About Moscow in general with example</t>
+  </si>
+  <si>
+    <t>Kuhn, J. (2009) Decrypting the MoSCoW Analysis. The Workable, Practical Guide to Do It Yourself [online]. 5 (44), pp. 1-2. [Accessed 22 June 2020].</t>
+  </si>
+  <si>
+    <t>Hudaib, A., Qasem, M.A.H., Masadeh, R.M.T. and Alzaqebah, A.I. (2018) Requirements Prioritisation Techniques Comparison. Modern Applied Science [online]. 12 (2), pp. 62-80. [Accessed 23 June 2020].</t>
+  </si>
+  <si>
+    <t>FR and NFR definitions</t>
+  </si>
+  <si>
+    <t>Lausen, S. (2002) Software Requirements Styles and Techniques. Great Britain: Biddles Ltd.</t>
+  </si>
+  <si>
+    <t>https://itq.ch/pdf/SCRUM_methodology.pdf</t>
+  </si>
+  <si>
+    <t>Verheyen, G. (2013) Scrum - A Pocket Guide - A Smart Travel Companion. Premedia, Amersfoort – Nl: Van Haren Publishing.</t>
+  </si>
+  <si>
+    <t>Book on agile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +147,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,12 +228,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -213,7 +260,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -229,11 +275,25 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -548,44 +608,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AD9ED1-B70B-4137-813E-52167673BAFF}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="12" customWidth="1"/>
     <col min="3" max="3" width="44" style="12" customWidth="1"/>
     <col min="4" max="4" width="61.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="67.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="67.42578125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>5</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="17"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F3" s="4"/>
@@ -638,13 +698,13 @@
       <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>6</v>
+      <c r="A8" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F9" s="4"/>
@@ -667,13 +727,11 @@
       <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="A11" s="8"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -724,23 +782,27 @@
       <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>7</v>
+      <c r="A16" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="21"/>
       <c r="C17" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -751,7 +813,14 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -762,6 +831,13 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -772,6 +848,13 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -782,6 +865,13 @@
       <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -812,15 +902,25 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>8</v>
+      <c r="A24" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="20"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>23</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -861,13 +961,13 @@
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>9</v>
+      <c r="A29" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="20"/>
+      <c r="E29" s="19"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F30" s="4"/>
@@ -910,13 +1010,13 @@
       <c r="M33" s="4"/>
     </row>
     <row r="34" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>10</v>
+      <c r="A34" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="20"/>
+      <c r="E34" s="19"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F35" s="4"/>
@@ -929,25 +1029,29 @@
       <c r="M35" s="4"/>
     </row>
     <row r="43" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
-        <v>11</v>
+      <c r="A43" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="9"/>
-      <c r="E43" s="20"/>
+      <c r="E43" s="19"/>
     </row>
     <row r="48" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>12</v>
+      <c r="A48" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
       <c r="D48" s="9"/>
-      <c r="E48" s="20"/>
+      <c r="E48" s="19"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1" xr:uid="{C79F4DCF-5CA9-4D38-B879-2A0CA60833CE}"/>
+    <hyperlink ref="E25" r:id="rId2" xr:uid="{0EC2F3F0-9091-428A-9BD6-4AA3324C2548}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>